--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Form submission is broken! (error detected)</t>
+          <t>Form submitted successfully and dashboard loaded</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Click button</t>
+          <t>Click link</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Login</t>
+          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Button click triggers expected action</t>
+          <t>Navigates to linked page</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Button is not working!</t>
+          <t>Navigates to linked page</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Button #1 on page</t>
+          <t>Link #1 on page</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
+          <t>https://www.facebook.com/OrangeHRM/</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Link #1 on page</t>
+          <t>Link #2 on page</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/OrangeHRM/</t>
+          <t>https://twitter.com/orangehrm?lang=en</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>Link #2 on page</t>
+          <t>Link #3 on page</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/orangehrm?lang=en</t>
+          <t>https://www.youtube.com/c/OrangeHRMInc</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Link #3 on page</t>
+          <t>Link #4 on page</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/c/OrangeHRMInc</t>
+          <t>OrangeHRM, Inc</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Link #4 on page</t>
+          <t>Link #5 on page</t>
         </is>
       </c>
     </row>
@@ -711,32 +711,942 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Click link</t>
+          <t>Click button</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #2 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #3 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #4 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #5 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #6 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #7 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>https://www.orangehrm.com/</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #2 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>PIM</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #3 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #4 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #5 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #6 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>My Info</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #7 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Directory</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Claim</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Buzz</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #13 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #14 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
           <t>OrangeHRM, Inc</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Link #5 on page</t>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #15 on page</t>
         </is>
       </c>
     </row>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4071,32 +4071,32 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Computer Vision</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Perform ML analysis</t>
+          <t>Analyze website visual elements</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>Website Intelligence</t>
+          <t>Visual Element Detection</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>Successfully perform ML analysis</t>
+          <t>Successfully detect visual elements</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>ML analysis failed: name 'alison_elements' is not defined</t>
+          <t>Detected 0 visual elements</t>
         </is>
       </c>
       <c r="G104" s="4" t="inlineStr">
         <is>
-          <t>[ML Analysis Error]</t>
+          <t>[Computer Vision] Visual analysis completed successfully</t>
         </is>
       </c>
     </row>
@@ -4106,32 +4106,32 @@
       </c>
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t>Form</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="C105" s="5" t="inlineStr">
         <is>
-          <t>Submit GET form</t>
+          <t>Perform ML analysis</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
         <is>
-          <t>https://alison.com/courses</t>
+          <t>Website Intelligence</t>
         </is>
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>Form submitted successfully</t>
+          <t>Successfully perform ML analysis</t>
         </is>
       </c>
       <c r="F105" s="5" t="inlineStr">
         <is>
-          <t>Form data prepared for submission</t>
+          <t>ML analysis failed: name 'alison_elements' is not defined</t>
         </is>
       </c>
       <c r="G105" s="5" t="inlineStr">
         <is>
-          <t>Form #1 on page [ML Enhanced - Deduplicated]</t>
+          <t>[ML Analysis Error]</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Submit POST form</t>
+          <t>Submit GET form</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>https://alison.com/learner-entry</t>
+          <t>https://alison.com/courses</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Form #3 on page [ML Enhanced - Deduplicated]</t>
+          <t>Form #1 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>https://alison.com/register</t>
+          <t>https://alison.com/learner-entry</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>Form #4 on page [ML Enhanced - Deduplicated]</t>
+          <t>Form #3 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>https://alison.com/password/email</t>
+          <t>https://alison.com/register</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="G108" s="4" t="inlineStr">
         <is>
-          <t>Form #5 on page [ML Enhanced - Deduplicated]</t>
+          <t>Form #4 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
       </c>
       <c r="C109" s="5" t="inlineStr">
         <is>
-          <t>Submit GET form</t>
+          <t>Submit POST form</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
         <is>
-          <t>https://alison.com</t>
+          <t>https://alison.com/password/email</t>
         </is>
       </c>
       <c r="E109" s="5" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="G109" s="5" t="inlineStr">
         <is>
-          <t>Form #6 on page [ML Enhanced - Deduplicated]</t>
+          <t>Form #5 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4281,32 +4281,32 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Form</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Click button</t>
+          <t>Submit GET form</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Unnamed button</t>
+          <t>https://alison.com</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Button click triggers expected action</t>
+          <t>Form submitted successfully</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>Button is not working!</t>
+          <t>Form data prepared for submission</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Button #1 on page [ML Enhanced - Deduplicated]</t>
+          <t>Form #6 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>Button #2 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #1 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="G112" s="4" t="inlineStr">
         <is>
-          <t>Button #3 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #2 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="G113" s="5" t="inlineStr">
         <is>
-          <t>Button #4 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #3 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Button #5 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #4 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>Button #6 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #5 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G116" s="4" t="inlineStr">
         <is>
-          <t>Button #7 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #6 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="D117" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Unnamed button</t>
         </is>
       </c>
       <c r="E117" s="5" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G117" s="5" t="inlineStr">
         <is>
-          <t>Button #8 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #7 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Button #9 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #8 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t>Button #10 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #9 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="G120" s="4" t="inlineStr">
         <is>
-          <t>Button #11 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #10 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D121" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E121" s="5" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G121" s="5" t="inlineStr">
         <is>
-          <t>Button #12 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #11 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Unnamed button</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Button #13 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #12 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t>Button #14 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #13 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Unnamed button</t>
         </is>
       </c>
       <c r="E124" s="4" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="G124" s="4" t="inlineStr">
         <is>
-          <t>Button #20 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #14 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D125" s="5" t="inlineStr">
         <is>
-          <t>Share It</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E125" s="5" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="G125" s="5" t="inlineStr">
         <is>
-          <t>Button #21 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #20 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4841,32 +4841,32 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Click link</t>
+          <t>Click button</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Get App</t>
+          <t>Share It</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Navigates to linked page</t>
+          <t>Button click triggers expected action</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>Navigates to linked page</t>
+          <t>Button is not working!</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Link #1 on page [ML Enhanced - Deduplicated]</t>
+          <t>Button #21 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Not For Me</t>
+          <t>Get App</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>Link #2 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #1 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not For Me</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G128" s="4" t="inlineStr">
         <is>
-          <t>Link #3 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #2 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>https://alison.com/</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="G129" s="5" t="inlineStr">
         <is>
-          <t>Link #4 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #3 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Information Systems</t>
+          <t>https://alison.com/</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Link #5 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #4 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Information Systems</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>Link #6 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #5 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="G132" s="4" t="inlineStr">
         <is>
-          <t>Link #7 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #6 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>Explore Courses</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="G133" s="5" t="inlineStr">
         <is>
-          <t>Link #8 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #7 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>header.all_diploma_courses</t>
+          <t>Explore Courses</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Link #9 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #8 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>header.all_certificate_courses</t>
+          <t>header.all_diploma_courses</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>Link #10 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #9 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>IT(1,259 Courses)</t>
+          <t>header.all_certificate_courses</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G136" s="4" t="inlineStr">
         <is>
-          <t>Link #11 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #10 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>Health(1,022 Courses)</t>
+          <t>IT(1,259 Courses)</t>
         </is>
       </c>
       <c r="E137" s="5" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="G137" s="5" t="inlineStr">
         <is>
-          <t>Link #12 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #11 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Language(314 Courses)</t>
+          <t>Health(1,022 Courses)</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Link #13 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #12 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>Business(1,718 Courses)</t>
+          <t>Language(314 Courses)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>Link #14 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #13 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>Management(1,045 Courses)</t>
+          <t>Business(1,718 Courses)</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G140" s="4" t="inlineStr">
         <is>
-          <t>Link #15 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #14 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="D141" s="5" t="inlineStr">
         <is>
-          <t>Personal Development(1,303 Courses)</t>
+          <t>Management(1,045 Courses)</t>
         </is>
       </c>
       <c r="E141" s="5" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G141" s="5" t="inlineStr">
         <is>
-          <t>Link #16 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #15 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing(438 Courses)</t>
+          <t>Personal Development(1,303 Courses)</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Link #17 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #16 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction(811 Courses)</t>
+          <t>Sales &amp; Marketing(438 Courses)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="G143" s="3" t="inlineStr">
         <is>
-          <t>Link #18 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #17 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>Teaching &amp; Academics(1,619 Courses)</t>
+          <t>Engineering &amp; Construction(811 Courses)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="G144" s="4" t="inlineStr">
         <is>
-          <t>Link #19 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #18 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="D145" s="5" t="inlineStr">
         <is>
-          <t>Health Science(162 Careers)</t>
+          <t>Teaching &amp; Academics(1,619 Courses)</t>
         </is>
       </c>
       <c r="E145" s="5" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="G145" s="5" t="inlineStr">
         <is>
-          <t>Link #21 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #19 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Finance(62 Careers)</t>
+          <t>Health Science(162 Careers)</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Link #22 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #21 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Information Technology(57 Careers)</t>
+          <t>Finance(62 Careers)</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t>Link #23 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #22 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>Education and Training(57 Careers)</t>
+          <t>Information Technology(57 Careers)</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="G148" s="4" t="inlineStr">
         <is>
-          <t>Link #24 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #23 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>Business Management and Administration(57 Careers)</t>
+          <t>Education and Training(57 Careers)</t>
         </is>
       </c>
       <c r="E149" s="5" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="G149" s="5" t="inlineStr">
         <is>
-          <t>Link #25 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #24 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Marketing, Sales, and Service(48 Careers)</t>
+          <t>Business Management and Administration(57 Careers)</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Link #26 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #25 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Agriculture, Food, and Natural Resources(37 Careers)</t>
+          <t>Marketing, Sales, and Service(48 Careers)</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>Link #27 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #26 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>Hospitality and Tourism(34 Careers)</t>
+          <t>Agriculture, Food, and Natural Resources(37 Careers)</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="G152" s="4" t="inlineStr">
         <is>
-          <t>Link #28 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #27 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>Science, Technology, Engineering, and Mathematics(111 Careers)</t>
+          <t>Hospitality and Tourism(34 Careers)</t>
         </is>
       </c>
       <c r="E153" s="5" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="G153" s="5" t="inlineStr">
         <is>
-          <t>Link #29 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #28 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Architecture and Construction(35 Careers)</t>
+          <t>Science, Technology, Engineering, and Mathematics(111 Careers)</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Link #30 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #29 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>Government and Public Administration(14 Careers)</t>
+          <t>Architecture and Construction(35 Careers)</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>Link #31 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #30 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>Law, Public Safety, Corrections, and Security(80 Careers)</t>
+          <t>Government and Public Administration(14 Careers)</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="G156" s="4" t="inlineStr">
         <is>
-          <t>Link #32 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #31 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="D157" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing(15 Careers)</t>
+          <t>Law, Public Safety, Corrections, and Security(80 Careers)</t>
         </is>
       </c>
       <c r="E157" s="5" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="G157" s="5" t="inlineStr">
         <is>
-          <t>Link #33 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #32 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Transportation, Distribution, and Logistics(37 Careers)</t>
+          <t>Manufacturing(15 Careers)</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Link #34 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #33 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>Human Services(55 Careers)</t>
+          <t>Transportation, Distribution, and Logistics(37 Careers)</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t>Link #35 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #34 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>Arts, Audio/Video Technology, and Communications(124 Careers)</t>
+          <t>Human Services(55 Careers)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="G160" s="4" t="inlineStr">
         <is>
-          <t>Link #36 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #35 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D161" s="5" t="inlineStr">
         <is>
-          <t>Become an Affiliate</t>
+          <t>Arts, Audio/Video Technology, and Communications(124 Careers)</t>
         </is>
       </c>
       <c r="E161" s="5" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="G161" s="5" t="inlineStr">
         <is>
-          <t>Link #40 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #36 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Log In</t>
+          <t>Become an Affiliate</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Link #42 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #40 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Sign Up</t>
+          <t>Log In</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="G163" s="3" t="inlineStr">
         <is>
-          <t>Link #43 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #42 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Sign Up</t>
         </is>
       </c>
       <c r="E164" s="4" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="G164" s="4" t="inlineStr">
         <is>
-          <t>Link #45 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #43 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="D165" s="5" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="E165" s="5" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="G165" s="5" t="inlineStr">
         <is>
-          <t>Link #46 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #45 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>French</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Link #47 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #46 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>Brazilian Portuguese</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G167" s="3" t="inlineStr">
         <is>
-          <t>Link #48 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #47 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D168" s="4" t="inlineStr">
         <is>
-          <t>https://play.google.com/store/apps/details?id=com.alison.mobile.flutter</t>
+          <t>Brazilian Portuguese</t>
         </is>
       </c>
       <c r="E168" s="4" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G168" s="4" t="inlineStr">
         <is>
-          <t>Link #50 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #48 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="D169" s="5" t="inlineStr">
         <is>
-          <t>https://apps.apple.com/app/apple-store/id1558468968?pt=118422314&amp;ct=portal_app_page&amp;mt=8</t>
+          <t>https://play.google.com/store/apps/details?id=com.alison.mobile.flutter</t>
         </is>
       </c>
       <c r="E169" s="5" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="G169" s="5" t="inlineStr">
         <is>
-          <t>Link #51 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #50 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Build YourCareer</t>
+          <t>https://apps.apple.com/app/apple-store/id1558468968?pt=118422314&amp;ct=portal_app_page&amp;mt=8</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Link #53 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #51 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>EarnOn Alison</t>
+          <t>Build YourCareer</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="G171" s="3" t="inlineStr">
         <is>
-          <t>Link #54 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #53 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>https://alison.com/course-creators/ibm</t>
+          <t>EarnOn Alison</t>
         </is>
       </c>
       <c r="E172" s="4" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="G172" s="4" t="inlineStr">
         <is>
-          <t>Link #58 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #54 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D173" s="5" t="inlineStr">
         <is>
-          <t>https://alison.com/course-creators/stanford</t>
+          <t>https://alison.com/course-creators/ibm</t>
         </is>
       </c>
       <c r="E173" s="5" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="G173" s="5" t="inlineStr">
         <is>
-          <t>Link #59 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #58 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>https://alison.com/course-creators/microsoft</t>
+          <t>https://alison.com/course-creators/stanford</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Link #60 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #59 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>English55 Courses</t>
+          <t>https://alison.com/course-creators/microsoft</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="G175" s="3" t="inlineStr">
         <is>
-          <t>Link #70 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #60 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>By Training Facility UK</t>
+          <t>English55 Courses</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="G176" s="4" t="inlineStr">
         <is>
-          <t>Link #75 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #70 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="D177" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Training Facility UK</t>
         </is>
       </c>
       <c r="E177" s="5" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="G177" s="5" t="inlineStr">
         <is>
-          <t>Link #76 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #75 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Link #77 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #76 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="G179" s="3" t="inlineStr">
         <is>
-          <t>Link #78 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #77 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="D180" s="4" t="inlineStr">
         <is>
-          <t>By Training Express</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E180" s="4" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="G180" s="4" t="inlineStr">
         <is>
-          <t>Link #79 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #78 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="D181" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Training Express</t>
         </is>
       </c>
       <c r="E181" s="5" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="G181" s="5" t="inlineStr">
         <is>
-          <t>Link #80 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #79 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>Link #81 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #80 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="G183" s="3" t="inlineStr">
         <is>
-          <t>Link #82 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #81 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>By Jawad Chand</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E184" s="4" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="G184" s="4" t="inlineStr">
         <is>
-          <t>Link #83 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #82 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="D185" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Jawad Chand</t>
         </is>
       </c>
       <c r="E185" s="5" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="G185" s="5" t="inlineStr">
         <is>
-          <t>Link #84 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #83 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Link #85 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #84 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="G187" s="3" t="inlineStr">
         <is>
-          <t>Link #86 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #85 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>By Exoexcellence Consultants</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="G188" s="4" t="inlineStr">
         <is>
-          <t>Link #87 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #86 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D189" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Exoexcellence Consultants</t>
         </is>
       </c>
       <c r="E189" s="5" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G189" s="5" t="inlineStr">
         <is>
-          <t>Link #88 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #87 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Link #89 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #88 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="G191" s="3" t="inlineStr">
         <is>
-          <t>Link #90 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #89 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="G192" s="4" t="inlineStr">
         <is>
-          <t>Link #91 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #90 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="D193" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
         </is>
       </c>
       <c r="E193" s="5" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="G193" s="5" t="inlineStr">
         <is>
-          <t>Link #92 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #91 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Link #93 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #92 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="G195" s="3" t="inlineStr">
         <is>
-          <t>Link #94 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #93 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>By Jawad Chand</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="G196" s="4" t="inlineStr">
         <is>
-          <t>Link #95 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #94 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="D197" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Jawad Chand</t>
         </is>
       </c>
       <c r="E197" s="5" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G197" s="5" t="inlineStr">
         <is>
-          <t>Link #96 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #95 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Link #97 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #96 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="G199" s="3" t="inlineStr">
         <is>
-          <t>Link #98 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #97 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D200" s="4" t="inlineStr">
         <is>
-          <t>By Mokhtar Harb Abd-El-Khalek</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E200" s="4" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="G200" s="4" t="inlineStr">
         <is>
-          <t>Link #99 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #98 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="D201" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Mokhtar Harb Abd-El-Khalek</t>
         </is>
       </c>
       <c r="E201" s="5" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="G201" s="5" t="inlineStr">
         <is>
-          <t>Link #100 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #99 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>Link #101 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #100 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="G203" s="3" t="inlineStr">
         <is>
-          <t>Link #102 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #101 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>By NHCPS</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="G204" s="4" t="inlineStr">
         <is>
-          <t>Link #103 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #102 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="D205" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By NHCPS</t>
         </is>
       </c>
       <c r="E205" s="5" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="G205" s="5" t="inlineStr">
         <is>
-          <t>Link #104 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #103 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Link #105 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #104 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="G207" s="3" t="inlineStr">
         <is>
-          <t>Link #106 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #105 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>By Training Facility UK</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="G208" s="4" t="inlineStr">
         <is>
-          <t>Link #107 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #106 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="D209" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Training Facility UK</t>
         </is>
       </c>
       <c r="E209" s="5" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="G209" s="5" t="inlineStr">
         <is>
-          <t>Link #108 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #107 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Link #109 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #108 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="G211" s="3" t="inlineStr">
         <is>
-          <t>Link #110 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #109 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="D212" s="4" t="inlineStr">
         <is>
-          <t>By Exoexcellence Consultants</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E212" s="4" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G212" s="4" t="inlineStr">
         <is>
-          <t>Link #111 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #110 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="D213" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Exoexcellence Consultants</t>
         </is>
       </c>
       <c r="E213" s="5" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="G213" s="5" t="inlineStr">
         <is>
-          <t>Link #112 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #111 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>Link #113 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #112 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="G215" s="3" t="inlineStr">
         <is>
-          <t>Link #114 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #113 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G216" s="4" t="inlineStr">
         <is>
-          <t>Link #115 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #114 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="D217" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
         </is>
       </c>
       <c r="E217" s="5" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="G217" s="5" t="inlineStr">
         <is>
-          <t>Link #116 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #115 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>Link #117 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #116 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="G219" s="3" t="inlineStr">
         <is>
-          <t>Link #118 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #117 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="G220" s="4" t="inlineStr">
         <is>
-          <t>Link #119 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #118 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="D221" s="5" t="inlineStr">
         <is>
-          <t>Read More</t>
+          <t>By Advance Learning - Health, Nursing &amp; Medical</t>
         </is>
       </c>
       <c r="E221" s="5" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="G221" s="5" t="inlineStr">
         <is>
-          <t>Link #120 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #119 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>More Info</t>
+          <t>Read More</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>Link #121 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #120 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t>Start Learning</t>
+          <t>More Info</t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="G223" s="3" t="inlineStr">
         <is>
-          <t>Link #122 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #121 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>Explore Free Courses</t>
+          <t>Start Learning</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="G224" s="4" t="inlineStr">
         <is>
-          <t>Link #155 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #122 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="D225" s="5" t="inlineStr">
         <is>
-          <t>I want toapply for a job</t>
+          <t>Explore Free Courses</t>
         </is>
       </c>
       <c r="E225" s="5" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G225" s="5" t="inlineStr">
         <is>
-          <t>Link #156 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #155 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>I want tofind a new career</t>
+          <t>I want toapply for a job</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Link #157 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #156 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>Quality Control</t>
+          <t>I want tofind a new career</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="G227" s="3" t="inlineStr">
         <is>
-          <t>Link #166 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #157 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Quality Control</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="G228" s="4" t="inlineStr">
         <is>
-          <t>Link #167 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #166 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="D229" s="5" t="inlineStr">
         <is>
-          <t>Contract Law</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="E229" s="5" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="G229" s="5" t="inlineStr">
         <is>
-          <t>Link #168 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #167 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Contract Law</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="G230" s="2" t="inlineStr">
         <is>
-          <t>Link #169 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #168 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t>Link #170 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #169 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>Health and Safety</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="G232" s="4" t="inlineStr">
         <is>
-          <t>Link #171 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #170 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>Caregiving</t>
+          <t>Health and Safety</t>
         </is>
       </c>
       <c r="E233" s="5" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="G233" s="5" t="inlineStr">
         <is>
-          <t>Link #172 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #171 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Caregiving</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>Link #173 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #172 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="D235" s="3" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E235" s="3" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t>Link #174 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #173 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>Psychology</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="G236" s="4" t="inlineStr">
         <is>
-          <t>Link #175 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #174 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="D237" s="5" t="inlineStr">
         <is>
-          <t>Programming</t>
+          <t>Psychology</t>
         </is>
       </c>
       <c r="E237" s="5" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G237" s="5" t="inlineStr">
         <is>
-          <t>Link #176 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #175 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>Nursing</t>
+          <t>Programming</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="G238" s="2" t="inlineStr">
         <is>
-          <t>Link #177 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #176 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>French Language</t>
+          <t>Nursing</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="G239" s="3" t="inlineStr">
         <is>
-          <t>Link #179 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #177 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="D240" s="4" t="inlineStr">
         <is>
-          <t>German Language</t>
+          <t>French Language</t>
         </is>
       </c>
       <c r="E240" s="4" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="G240" s="4" t="inlineStr">
         <is>
-          <t>Link #180 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #179 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="D241" s="5" t="inlineStr">
         <is>
-          <t>Law</t>
+          <t>German Language</t>
         </is>
       </c>
       <c r="E241" s="5" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="G241" s="5" t="inlineStr">
         <is>
-          <t>Link #181 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #180 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>Carpentry</t>
+          <t>Law</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="G242" s="2" t="inlineStr">
         <is>
-          <t>Link #182 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #181 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>Nutrition</t>
+          <t>Carpentry</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>Link #183 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #182 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="D244" s="4" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="E244" s="4" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="G244" s="4" t="inlineStr">
         <is>
-          <t>Link #184 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #183 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="D245" s="5" t="inlineStr">
         <is>
-          <t>Mental Health</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="E245" s="5" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="G245" s="5" t="inlineStr">
         <is>
-          <t>Link #185 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #184 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>Hospitality</t>
+          <t>Mental Health</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G246" s="2" t="inlineStr">
         <is>
-          <t>Link #186 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #185 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>Journalism</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>Link #187 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #186 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>Quality Management</t>
+          <t>Journalism</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="G248" s="4" t="inlineStr">
         <is>
-          <t>Link #188 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #187 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D249" s="5" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Quality Management</t>
         </is>
       </c>
       <c r="E249" s="5" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="G249" s="5" t="inlineStr">
         <is>
-          <t>Link #189 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #188 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="G250" s="2" t="inlineStr">
         <is>
-          <t>Link #190 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #189 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>E-commerce</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>Link #191 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #190 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>E-commerce</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="G252" s="4" t="inlineStr">
         <is>
-          <t>Link #192 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #191 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="D253" s="5" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="E253" s="5" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="G253" s="5" t="inlineStr">
         <is>
-          <t>Link #193 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #192 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>Ccna</t>
+          <t>Pharmacology</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="G254" s="2" t="inlineStr">
         <is>
-          <t>Link #194 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #193 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Ccna</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>Link #195 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #194 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="D256" s="4" t="inlineStr">
         <is>
-          <t>Communication Skills</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="E256" s="4" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="G256" s="4" t="inlineStr">
         <is>
-          <t>Link #196 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #195 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D257" s="5" t="inlineStr">
         <is>
-          <t>Databases</t>
+          <t>Communication Skills</t>
         </is>
       </c>
       <c r="E257" s="5" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="G257" s="5" t="inlineStr">
         <is>
-          <t>Link #197 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #196 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Databases</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G258" s="2" t="inlineStr">
         <is>
-          <t>Link #198 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #197 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>Physiotherapy</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>Link #199 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #198 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>Architecture</t>
+          <t>Physiotherapy</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="G260" s="4" t="inlineStr">
         <is>
-          <t>Link #200 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #199 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="D261" s="5" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="E261" s="5" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="G261" s="5" t="inlineStr">
         <is>
-          <t>Link #201 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #200 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>View More Skills</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="G262" s="2" t="inlineStr">
         <is>
-          <t>Link #202 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #201 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="D263" s="3" t="inlineStr">
         <is>
-          <t>Take The Free Personality Assessment</t>
+          <t>View More Skills</t>
         </is>
       </c>
       <c r="E263" s="3" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="G263" s="3" t="inlineStr">
         <is>
-          <t>Link #203 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #202 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>Create My Professional Resumé</t>
+          <t>Take The Free Personality Assessment</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="G264" s="4" t="inlineStr">
         <is>
-          <t>Link #204 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #203 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="D265" s="5" t="inlineStr">
         <is>
-          <t>Morgan BallouHealth and Safety Officer</t>
+          <t>Create My Professional Resumé</t>
         </is>
       </c>
       <c r="E265" s="5" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="G265" s="5" t="inlineStr">
         <is>
-          <t>Link #205 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #204 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>Ikechukwu OdiakaAssistant Nurse</t>
+          <t>Morgan BallouHealth and Safety Officer</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="G266" s="2" t="inlineStr">
         <is>
-          <t>Link #206 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #205 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="D267" s="3" t="inlineStr">
         <is>
-          <t>Esther AnurikaAlison Graduate</t>
+          <t>Ikechukwu OdiakaAssistant Nurse</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>Link #207 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #206 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>Andrew De La RosaAlison Graduate</t>
+          <t>Esther AnurikaAlison Graduate</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="G268" s="4" t="inlineStr">
         <is>
-          <t>Link #208 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #207 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="D269" s="5" t="inlineStr">
         <is>
-          <t>Sunil SaradAlison Graduate</t>
+          <t>Andrew De La RosaAlison Graduate</t>
         </is>
       </c>
       <c r="E269" s="5" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="G269" s="5" t="inlineStr">
         <is>
-          <t>Link #209 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #208 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>Learn More About Graduate Outcomes</t>
+          <t>Sunil SaradAlison Graduate</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="G270" s="2" t="inlineStr">
         <is>
-          <t>Link #210 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #209 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="D271" s="3" t="inlineStr">
         <is>
-          <t>https://apps.apple.com/us/app/alison-online-courses/id1558468968</t>
+          <t>Learn More About Graduate Outcomes</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>Link #212 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #210 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>https://play.google.com/store/apps/details?id=com.alison.mobile.flutter&amp;gl=IE</t>
+          <t>https://apps.apple.com/us/app/alison-online-courses/id1558468968</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="G272" s="4" t="inlineStr">
         <is>
-          <t>Link #213 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #212 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="D273" s="5" t="inlineStr">
         <is>
-          <t>Alison in ActionNew Feature: Stay on Top of Your Mental Health with Regular...Work isn’t what it used to be. Roles are shifting, expectations are rising, and stress is showing up in new an......Read MoreJuly 29, 2025</t>
+          <t>https://play.google.com/store/apps/details?id=com.alison.mobile.flutter&amp;gl=IE</t>
         </is>
       </c>
       <c r="E273" s="5" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="G273" s="5" t="inlineStr">
         <is>
-          <t>Link #214 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #213 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>Alison HQ NewsConfidence and Control: Grasp Essential Life Skills With New...Do you ever feel ill-equipped to handle all the challenges of adult life? Our new “Adulting” Hub  is here to h......Read MoreJuly 25, 2025</t>
+          <t>Alison in ActionNew Feature: Stay on Top of Your Mental Health with Regular...Work isn’t what it used to be. Roles are shifting, expectations are rising, and stress is showing up in new an......Read MoreJuly 29, 2025</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="G274" s="2" t="inlineStr">
         <is>
-          <t>Link #215 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #214 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="D275" s="3" t="inlineStr">
         <is>
-          <t>Alison in ActionAlison vs Coursera: The Best Free Online Learning Platform i...If you’ve ever looked up online learning platforms, the results may overwhelm you. There are so many options t......Read MoreJuly 23, 2025</t>
+          <t>Alison HQ NewsConfidence and Control: Grasp Essential Life Skills With New...Do you ever feel ill-equipped to handle all the challenges of adult life? Our new “Adulting” Hub  is here to h......Read MoreJuly 25, 2025</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>Link #216 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #215 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>Learning Management SystemBuilding AI Skills in Your Workforce: Practical Steps for L&amp;...Artificial Intelligence (AI) is not something that only tech guys or IT departments use. People in HR, marketi......Read MoreJuly 17, 2025</t>
+          <t>Alison in ActionAlison vs Coursera: The Best Free Online Learning Platform i...If you’ve ever looked up online learning platforms, the results may overwhelm you. There are so many options t......Read MoreJuly 23, 2025</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="G276" s="4" t="inlineStr">
         <is>
-          <t>Link #217 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #216 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="D277" s="5" t="inlineStr">
         <is>
-          <t>Alison in ActionAlison vs Udemy: The Best Platform for Cyber Security Course...We live in a digital-first world where cyber security skills are no longer optional; they’re essential. Whethe......Read MoreJuly 14, 2025</t>
+          <t>Learning Management SystemBuilding AI Skills in Your Workforce: Practical Steps for L&amp;...Artificial Intelligence (AI) is not something that only tech guys or IT departments use. People in HR, marketi......Read MoreJuly 17, 2025</t>
         </is>
       </c>
       <c r="E277" s="5" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="G277" s="5" t="inlineStr">
         <is>
-          <t>Link #218 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #217 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>Learning Management SystemThe AI Skills Gap: Why Businesses Must Act Now“The AI skills shortage among UK tech leaders has more than doubled in the last year.” A drastic growth in the......Read MoreJuly 10, 2025</t>
+          <t>Alison in ActionAlison vs Udemy: The Best Platform for Cyber Security Course...We live in a digital-first world where cyber security skills are no longer optional; they’re essential. Whethe......Read MoreJuly 14, 2025</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>Link #219 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #218 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="D279" s="3" t="inlineStr">
         <is>
-          <t>Mike Feerick</t>
+          <t>Learning Management SystemThe AI Skills Gap: Why Businesses Must Act Now“The AI skills shortage among UK tech leaders has more than doubled in the last year.” A drastic growth in the......Read MoreJuly 10, 2025</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>Link #220 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #219 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>Learn aboutOur Story</t>
+          <t>Mike Feerick</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="G280" s="4" t="inlineStr">
         <is>
-          <t>Link #221 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #220 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D281" s="5" t="inlineStr">
         <is>
-          <t>Go To Profile</t>
+          <t>Learn aboutOur Story</t>
         </is>
       </c>
       <c r="E281" s="5" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="G281" s="5" t="inlineStr">
         <is>
-          <t>Link #222 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #221 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>https://alison.com/auth/facebook?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
+          <t>Go To Profile</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>Link #224 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #222 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="D283" s="3" t="inlineStr">
         <is>
-          <t>https://alison.com/auth/live?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
+          <t>https://alison.com/auth/facebook?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>Link #225 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #224 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="D284" s="4" t="inlineStr">
         <is>
-          <t>Google සමගින් පුරන්න. නව පටිත්තක විවෘත වේ</t>
+          <t>https://alison.com/auth/live?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
         </is>
       </c>
       <c r="E284" s="4" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="G284" s="4" t="inlineStr">
         <is>
-          <t>Link #226 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #225 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="D285" s="5" t="inlineStr">
         <is>
-          <t>https://alison.com/auth/linkedin?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
+          <t>Google සමගින් පුරන්න. නව පටිත්තක විවෘත වේ</t>
         </is>
       </c>
       <c r="E285" s="5" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="G285" s="5" t="inlineStr">
         <is>
-          <t>Link #227 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #226 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>Click Here</t>
+          <t>https://alison.com/auth/linkedin?redirect_url=https://alison.com&amp;previous_url=https://alison.com&amp;route_name=site.home</t>
         </is>
       </c>
       <c r="E286" s="2" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G286" s="2" t="inlineStr">
         <is>
-          <t>Link #229 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #227 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="D287" s="3" t="inlineStr">
         <is>
-          <t>Terms &amp; Conditions</t>
+          <t>Click Here</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="G287" s="3" t="inlineStr">
         <is>
-          <t>Link #234 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #229 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="D288" s="4" t="inlineStr">
         <is>
-          <t>Learning on Alison</t>
+          <t>Terms &amp; Conditions</t>
         </is>
       </c>
       <c r="E288" s="4" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="G288" s="4" t="inlineStr">
         <is>
-          <t>Link #246 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #234 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="D289" s="5" t="inlineStr">
         <is>
-          <t>Board of Directors</t>
+          <t>Learning on Alison</t>
         </is>
       </c>
       <c r="E289" s="5" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="G289" s="5" t="inlineStr">
         <is>
-          <t>Link #248 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #246 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>Alison in Africa</t>
+          <t>Board of Directors</t>
         </is>
       </c>
       <c r="E290" s="2" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="G290" s="2" t="inlineStr">
         <is>
-          <t>Link #249 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #248 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
-          <t>Alison Programmes</t>
+          <t>Alison in Africa</t>
         </is>
       </c>
       <c r="E291" s="3" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t>Link #250 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #249 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="D292" s="4" t="inlineStr">
         <is>
-          <t>Our Course Creators</t>
+          <t>Alison Programmes</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="G292" s="4" t="inlineStr">
         <is>
-          <t>Link #251 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #250 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="D293" s="5" t="inlineStr">
         <is>
-          <t>Open Positions</t>
+          <t>Our Course Creators</t>
         </is>
       </c>
       <c r="E293" s="5" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="G293" s="5" t="inlineStr">
         <is>
-          <t>Link #252 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #251 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>Press Room</t>
+          <t>Open Positions</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="G294" s="2" t="inlineStr">
         <is>
-          <t>Link #253 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #252 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>Press Room</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>Link #254 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #253 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="D296" s="4" t="inlineStr">
         <is>
-          <t>Our Team &amp; Culture</t>
+          <t>Blog</t>
         </is>
       </c>
       <c r="E296" s="4" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="G296" s="4" t="inlineStr">
         <is>
-          <t>Link #255 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #254 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="D297" s="5" t="inlineStr">
         <is>
-          <t>Our Unique HQ</t>
+          <t>Our Team &amp; Culture</t>
         </is>
       </c>
       <c r="E297" s="5" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="G297" s="5" t="inlineStr">
         <is>
-          <t>Link #256 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #255 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>Hubs</t>
+          <t>Our Unique HQ</t>
         </is>
       </c>
       <c r="E298" s="2" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="G298" s="2" t="inlineStr">
         <is>
-          <t>Link #260 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #256 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="D299" s="3" t="inlineStr">
         <is>
-          <t>Accreditation</t>
+          <t>Hubs</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>Link #261 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #260 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="D300" s="4" t="inlineStr">
         <is>
-          <t>Graduate Outcomes</t>
+          <t>Accreditation</t>
         </is>
       </c>
       <c r="E300" s="4" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="G300" s="4" t="inlineStr">
         <is>
-          <t>Link #262 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #261 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="D301" s="5" t="inlineStr">
         <is>
-          <t>Premium Learning</t>
+          <t>Graduate Outcomes</t>
         </is>
       </c>
       <c r="E301" s="5" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="G301" s="5" t="inlineStr">
         <is>
-          <t>Link #264 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #262 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>Graduate Profiles</t>
+          <t>Premium Learning</t>
         </is>
       </c>
       <c r="E302" s="2" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>Link #265 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #264 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
-          <t>Purchase a Gift Card</t>
+          <t>Graduate Profiles</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>Link #266 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #265 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="D304" s="4" t="inlineStr">
         <is>
-          <t>Download App &amp; Learn Offline</t>
+          <t>Purchase a Gift Card</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="G304" s="4" t="inlineStr">
         <is>
-          <t>Link #267 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #266 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="D305" s="5" t="inlineStr">
         <is>
-          <t>Discover Careers</t>
+          <t>Download App &amp; Learn Offline</t>
         </is>
       </c>
       <c r="E305" s="5" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="G305" s="5" t="inlineStr">
         <is>
-          <t>Link #270 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #267 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>Aptitude Test</t>
+          <t>Discover Careers</t>
         </is>
       </c>
       <c r="E306" s="2" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="G306" s="2" t="inlineStr">
         <is>
-          <t>Link #273 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #270 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="D307" s="3" t="inlineStr">
         <is>
-          <t>Verbal Reasoning Test</t>
+          <t>Aptitude Test</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>Link #274 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #273 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>Numerical Reasoning Test</t>
+          <t>Verbal Reasoning Test</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="G308" s="4" t="inlineStr">
         <is>
-          <t>Link #275 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #274 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>Abstract Reasoning Test</t>
+          <t>Numerical Reasoning Test</t>
         </is>
       </c>
       <c r="E309" s="5" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="G309" s="5" t="inlineStr">
         <is>
-          <t>Link #276 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #275 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>Free Well-being Check up</t>
+          <t>Abstract Reasoning Test</t>
         </is>
       </c>
       <c r="E310" s="2" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="G310" s="2" t="inlineStr">
         <is>
-          <t>Link #278 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #276 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="D311" s="3" t="inlineStr">
         <is>
-          <t>Integrate Alison’s API</t>
+          <t>Free Well-being Check up</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>Link #279 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #278 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="D312" s="4" t="inlineStr">
         <is>
-          <t>Create Courses on Alison</t>
+          <t>Integrate Alison’s API</t>
         </is>
       </c>
       <c r="E312" s="4" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="G312" s="4" t="inlineStr">
         <is>
-          <t>Link #280 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #279 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="D313" s="5" t="inlineStr">
         <is>
-          <t>Refer a Friend</t>
+          <t>Create Courses on Alison</t>
         </is>
       </c>
       <c r="E313" s="5" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="G313" s="5" t="inlineStr">
         <is>
-          <t>Link #282 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #280 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>Upcoming Webinars</t>
+          <t>Refer a Friend</t>
         </is>
       </c>
       <c r="E314" s="2" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="G314" s="2" t="inlineStr">
         <is>
-          <t>Link #283 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #282 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
-          <t>FAQs</t>
+          <t>Upcoming Webinars</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>Link #285 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #283 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>FAQs</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G316" s="4" t="inlineStr">
         <is>
-          <t>Link #286 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #285 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="D317" s="5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/AlisonCourses</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="E317" s="5" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="G317" s="5" t="inlineStr">
         <is>
-          <t>Link #287 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #286 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/Alison_Learning</t>
+          <t>https://www.facebook.com/AlisonCourses</t>
         </is>
       </c>
       <c r="E318" s="2" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="G318" s="2" t="inlineStr">
         <is>
-          <t>Link #288 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #287 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="D319" s="3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/alison-learning</t>
+          <t>https://twitter.com/Alison_Learning</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>Link #289 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #288 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/alisonlearning</t>
+          <t>https://www.linkedin.com/company/alison-learning</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="G320" s="4" t="inlineStr">
         <is>
-          <t>Link #290 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #289 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="D321" s="5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alisonlearning</t>
+          <t>https://www.instagram.com/alisonlearning</t>
         </is>
       </c>
       <c r="E321" s="5" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="G321" s="5" t="inlineStr">
         <is>
-          <t>Link #291 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #290 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/channel/UC-xeBVl9gN_sQTVhDVSgL6g</t>
+          <t>https://www.tiktok.com/@alisonlearning</t>
         </is>
       </c>
       <c r="E322" s="2" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="G322" s="2" t="inlineStr">
         <is>
-          <t>Link #292 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #291 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="D323" s="3" t="inlineStr">
         <is>
-          <t>https://alison.quora.com</t>
+          <t>https://www.youtube.com/channel/UC-xeBVl9gN_sQTVhDVSgL6g</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>Link #293 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #292 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>https://t.me/alisonlearning</t>
+          <t>https://alison.quora.com</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="G324" s="4" t="inlineStr">
         <is>
-          <t>Link #294 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #293 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="D325" s="5" t="inlineStr">
         <is>
-          <t>Privacy</t>
+          <t>https://t.me/alisonlearning</t>
         </is>
       </c>
       <c r="E325" s="5" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="G325" s="5" t="inlineStr">
         <is>
-          <t>Link #297 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #294 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>Cookie Policy</t>
+          <t>Privacy</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="G326" s="2" t="inlineStr">
         <is>
-          <t>Link #299 on page [ML Enhanced - Deduplicated]</t>
+          <t>Link #297 on page [ML Enhanced - Deduplicated]</t>
         </is>
       </c>
     </row>
@@ -11886,20 +11886,55 @@
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
+          <t>Cookie Policy</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F327" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G327" s="3" t="inlineStr">
+        <is>
+          <t>Link #299 on page [ML Enhanced - Deduplicated]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="4" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="C328" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="D328" s="4" t="inlineStr">
+        <is>
           <t>Sitemap</t>
         </is>
       </c>
-      <c r="E327" s="3" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="F327" s="3" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="G327" s="3" t="inlineStr">
+      <c r="E328" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="F328" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="G328" s="4" t="inlineStr">
         <is>
           <t>Link #300 on page [ML Enhanced - Deduplicated]</t>
         </is>
